--- a/Data_clean/MCAS/Estados_US/Edos_USA_2017/ARIZONA_2017.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2017/ARIZONA_2017.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1252"/>
+  <dimension ref="A1:D1246"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C6">
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C9">
@@ -706,7 +706,7 @@
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C25">
@@ -823,7 +823,7 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C34">
@@ -1083,7 +1083,7 @@
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C54">
@@ -1200,7 +1200,7 @@
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C63">
@@ -1634,7 +1634,7 @@
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>Coyame del Sotol</t>
+          <t>Coyame Del Sotol</t>
         </is>
       </c>
       <c r="C96">
@@ -1751,7 +1751,7 @@
     <row r="105">
       <c r="B105" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C105">
@@ -1790,7 +1790,7 @@
     <row r="108">
       <c r="B108" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C108">
@@ -2063,7 +2063,7 @@
     <row r="129">
       <c r="B129" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C129">
@@ -2076,7 +2076,7 @@
     <row r="130">
       <c r="B130" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C130">
@@ -2180,7 +2180,7 @@
     <row r="138">
       <c r="B138" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C138">
@@ -2341,7 +2341,7 @@
     <row r="150">
       <c r="B150" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C150">
@@ -2489,7 +2489,7 @@
     <row r="161">
       <c r="B161" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C161">
@@ -2515,7 +2515,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -2572,7 +2572,7 @@
     <row r="167">
       <c r="B167" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C167">
@@ -2772,7 +2772,7 @@
     <row r="182">
       <c r="B182" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C182">
@@ -2941,7 +2941,7 @@
     <row r="195">
       <c r="B195" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C195">
@@ -2993,7 +2993,7 @@
     <row r="199">
       <c r="B199" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C199">
@@ -3084,7 +3084,7 @@
     <row r="206">
       <c r="B206" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C206">
@@ -3097,7 +3097,7 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C207">
@@ -3110,7 +3110,7 @@
     <row r="208">
       <c r="B208" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C208">
@@ -3240,12 +3240,12 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C218">
@@ -3284,7 +3284,7 @@
     <row r="221">
       <c r="B221" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C221">
@@ -3297,7 +3297,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C222">
@@ -3349,7 +3349,7 @@
     <row r="226">
       <c r="B226" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C226">
@@ -3414,7 +3414,7 @@
     <row r="231">
       <c r="B231" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C231">
@@ -3544,7 +3544,7 @@
     <row r="241">
       <c r="B241" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C241">
@@ -3583,7 +3583,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C244">
@@ -3596,7 +3596,7 @@
     <row r="245">
       <c r="B245" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C245">
@@ -3752,7 +3752,7 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C257">
@@ -3856,7 +3856,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C265">
@@ -3960,7 +3960,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C273">
@@ -4064,7 +4064,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C281">
@@ -4129,7 +4129,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C286">
@@ -4142,7 +4142,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C287">
@@ -4155,7 +4155,7 @@
     <row r="288">
       <c r="B288" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C288">
@@ -4168,7 +4168,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C289">
@@ -4329,7 +4329,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C301">
@@ -4342,7 +4342,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C302">
@@ -4355,7 +4355,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C303">
@@ -4459,7 +4459,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C311">
@@ -4511,7 +4511,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C315">
@@ -4615,7 +4615,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C323">
@@ -4680,7 +4680,7 @@
     <row r="328">
       <c r="B328" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C328">
@@ -4706,7 +4706,7 @@
     <row r="330">
       <c r="B330" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C330">
@@ -4732,7 +4732,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C332">
@@ -4784,7 +4784,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C336">
@@ -4854,7 +4854,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C341">
@@ -4880,7 +4880,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C343">
@@ -4893,7 +4893,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C344">
@@ -4945,7 +4945,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C348">
@@ -4971,7 +4971,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C350">
@@ -4984,7 +4984,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C351">
@@ -5023,7 +5023,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C354">
@@ -5036,7 +5036,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C355">
@@ -5049,7 +5049,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C356">
@@ -5062,7 +5062,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C357">
@@ -5127,7 +5127,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C362">
@@ -5140,7 +5140,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C363">
@@ -5192,7 +5192,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C367">
@@ -5205,7 +5205,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C368">
@@ -5283,7 +5283,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C374">
@@ -5296,7 +5296,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C375">
@@ -5322,7 +5322,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C377">
@@ -5335,7 +5335,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C378">
@@ -5361,7 +5361,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C380">
@@ -5556,7 +5556,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C395">
@@ -5582,7 +5582,7 @@
     <row r="397">
       <c r="B397" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C397">
@@ -5608,7 +5608,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C399">
@@ -5634,7 +5634,7 @@
     <row r="401">
       <c r="B401" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C401">
@@ -5686,7 +5686,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C405">
@@ -5699,7 +5699,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C406">
@@ -5808,7 +5808,7 @@
     <row r="414">
       <c r="B414" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C414">
@@ -5860,7 +5860,7 @@
     <row r="418">
       <c r="B418" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C418">
@@ -5873,7 +5873,7 @@
     <row r="419">
       <c r="B419" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C419">
@@ -5925,7 +5925,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C423">
@@ -5964,7 +5964,7 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C426">
@@ -6003,7 +6003,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C429">
@@ -6068,7 +6068,7 @@
     <row r="434">
       <c r="B434" t="inlineStr">
         <is>
-          <t>Mineral de la Reforma</t>
+          <t>Mineral De La Reforma</t>
         </is>
       </c>
       <c r="C434">
@@ -6081,7 +6081,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C435">
@@ -6094,7 +6094,7 @@
     <row r="436">
       <c r="B436" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C436">
@@ -6107,7 +6107,7 @@
     <row r="437">
       <c r="B437" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C437">
@@ -6120,7 +6120,7 @@
     <row r="438">
       <c r="B438" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C438">
@@ -6133,7 +6133,7 @@
     <row r="439">
       <c r="B439" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C439">
@@ -6146,7 +6146,7 @@
     <row r="440">
       <c r="B440" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C440">
@@ -6211,7 +6211,7 @@
     <row r="445">
       <c r="B445" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C445">
@@ -6263,7 +6263,7 @@
     <row r="449">
       <c r="B449" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C449">
@@ -6289,7 +6289,7 @@
     <row r="451">
       <c r="B451" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C451">
@@ -6315,7 +6315,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C453">
@@ -6367,7 +6367,7 @@
     <row r="457">
       <c r="B457" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C457">
@@ -6380,7 +6380,7 @@
     <row r="458">
       <c r="B458" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C458">
@@ -6393,7 +6393,7 @@
     <row r="459">
       <c r="B459" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C459">
@@ -6406,7 +6406,7 @@
     <row r="460">
       <c r="B460" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C460">
@@ -6463,7 +6463,7 @@
     <row r="464">
       <c r="B464" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C464">
@@ -6528,7 +6528,7 @@
     <row r="469">
       <c r="B469" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C469">
@@ -6541,7 +6541,7 @@
     <row r="470">
       <c r="B470" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C470">
@@ -6606,7 +6606,7 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C475">
@@ -6684,7 +6684,7 @@
     <row r="481">
       <c r="B481" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C481">
@@ -6788,7 +6788,7 @@
     <row r="489">
       <c r="B489" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C489">
@@ -6853,7 +6853,7 @@
     <row r="494">
       <c r="B494" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C494">
@@ -6866,7 +6866,7 @@
     <row r="495">
       <c r="B495" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C495">
@@ -6905,7 +6905,7 @@
     <row r="498">
       <c r="B498" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C498">
@@ -6983,7 +6983,7 @@
     <row r="504">
       <c r="B504" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C504">
@@ -7061,7 +7061,7 @@
     <row r="510">
       <c r="B510" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C510">
@@ -7113,7 +7113,7 @@
     <row r="514">
       <c r="B514" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C514">
@@ -7126,7 +7126,7 @@
     <row r="515">
       <c r="B515" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C515">
@@ -7152,7 +7152,7 @@
     <row r="517">
       <c r="B517" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C517">
@@ -7204,7 +7204,7 @@
     <row r="521">
       <c r="B521" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C521">
@@ -7217,7 +7217,7 @@
     <row r="522">
       <c r="B522" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C522">
@@ -7230,7 +7230,7 @@
     <row r="523">
       <c r="B523" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C523">
@@ -7269,7 +7269,7 @@
     <row r="526">
       <c r="B526" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C526">
@@ -7282,7 +7282,7 @@
     <row r="527">
       <c r="B527" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C527">
@@ -7334,7 +7334,7 @@
     <row r="531">
       <c r="B531" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C531">
@@ -7347,7 +7347,7 @@
     <row r="532">
       <c r="B532" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C532">
@@ -7373,7 +7373,7 @@
     <row r="534">
       <c r="B534" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C534">
@@ -7386,7 +7386,7 @@
     <row r="535">
       <c r="B535" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C535">
@@ -7529,7 +7529,7 @@
     <row r="546">
       <c r="B546" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C546">
@@ -7542,7 +7542,7 @@
     <row r="547">
       <c r="B547" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C547">
@@ -7594,7 +7594,7 @@
     <row r="551">
       <c r="B551" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C551">
@@ -7607,7 +7607,7 @@
     <row r="552">
       <c r="B552" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C552">
@@ -7646,7 +7646,7 @@
     <row r="555">
       <c r="B555" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C555">
@@ -7659,7 +7659,7 @@
     <row r="556">
       <c r="B556" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C556">
@@ -7672,7 +7672,7 @@
     <row r="557">
       <c r="B557" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C557">
@@ -7911,7 +7911,7 @@
     <row r="575">
       <c r="B575" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C575">
@@ -7937,7 +7937,7 @@
     <row r="577">
       <c r="B577" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C577">
@@ -9112,7 +9112,7 @@
     <row r="667">
       <c r="B667" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C667">
@@ -9177,7 +9177,7 @@
     <row r="672">
       <c r="B672" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C672">
@@ -9255,7 +9255,7 @@
     <row r="678">
       <c r="B678" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C678">
@@ -9312,7 +9312,7 @@
     <row r="682">
       <c r="B682" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C682">
@@ -9325,7 +9325,7 @@
     <row r="683">
       <c r="B683" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C683">
@@ -9377,7 +9377,7 @@
     <row r="687">
       <c r="B687" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C687">
@@ -9468,7 +9468,7 @@
     <row r="694">
       <c r="B694" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C694">
@@ -9707,7 +9707,7 @@
     <row r="712">
       <c r="B712" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C712">
@@ -9764,7 +9764,7 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C716">
@@ -9790,7 +9790,7 @@
     <row r="718">
       <c r="B718" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C718">
@@ -9803,7 +9803,7 @@
     <row r="719">
       <c r="B719" t="inlineStr">
         <is>
-          <t>Ciénega de Zimatlán</t>
+          <t>Ciénega De Zimatlán</t>
         </is>
       </c>
       <c r="C719">
@@ -9816,7 +9816,7 @@
     <row r="720">
       <c r="B720" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C720">
@@ -9855,7 +9855,7 @@
     <row r="723">
       <c r="B723" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C723">
@@ -9868,7 +9868,7 @@
     <row r="724">
       <c r="B724" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C724">
@@ -9881,7 +9881,7 @@
     <row r="725">
       <c r="B725" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C725">
@@ -9894,7 +9894,7 @@
     <row r="726">
       <c r="B726" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C726">
@@ -9907,7 +9907,7 @@
     <row r="727">
       <c r="B727" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C727">
@@ -9920,7 +9920,7 @@
     <row r="728">
       <c r="B728" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C728">
@@ -9933,7 +9933,7 @@
     <row r="729">
       <c r="B729" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C729">
@@ -10011,7 +10011,7 @@
     <row r="735">
       <c r="B735" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C735">
@@ -10050,7 +10050,7 @@
     <row r="738">
       <c r="B738" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C738">
@@ -10063,7 +10063,7 @@
     <row r="739">
       <c r="B739" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C739">
@@ -10076,7 +10076,7 @@
     <row r="740">
       <c r="B740" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C740">
@@ -10089,7 +10089,7 @@
     <row r="741">
       <c r="B741" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C741">
@@ -10596,7 +10596,7 @@
     <row r="780">
       <c r="B780" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C780">
@@ -10765,7 +10765,7 @@
     <row r="793">
       <c r="B793" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Tequixtepec</t>
+          <t>San Pedro Y San Pablo Tequixtepec</t>
         </is>
       </c>
       <c r="C793">
@@ -10947,7 +10947,7 @@
     <row r="807">
       <c r="B807" t="inlineStr">
         <is>
-          <t>Santa María del Tule</t>
+          <t>Santa María Del Tule</t>
         </is>
       </c>
       <c r="C807">
@@ -10986,7 +10986,7 @@
     <row r="810">
       <c r="B810" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C810">
@@ -11285,7 +11285,7 @@
     <row r="833">
       <c r="B833" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C833">
@@ -11298,7 +11298,7 @@
     <row r="834">
       <c r="B834" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C834">
@@ -11311,7 +11311,7 @@
     <row r="835">
       <c r="B835" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C835">
@@ -11324,7 +11324,7 @@
     <row r="836">
       <c r="B836" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C836">
@@ -11337,7 +11337,7 @@
     <row r="837">
       <c r="B837" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C837">
@@ -11350,7 +11350,7 @@
     <row r="838">
       <c r="B838" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C838">
@@ -11363,7 +11363,7 @@
     <row r="839">
       <c r="B839" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C839">
@@ -11376,7 +11376,7 @@
     <row r="840">
       <c r="B840" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C840">
@@ -11576,7 +11576,7 @@
     <row r="855">
       <c r="B855" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C855">
@@ -11654,7 +11654,7 @@
     <row r="861">
       <c r="B861" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C861">
@@ -11771,7 +11771,7 @@
     <row r="870">
       <c r="B870" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C870">
@@ -11797,7 +11797,7 @@
     <row r="872">
       <c r="B872" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C872">
@@ -11875,7 +11875,7 @@
     <row r="878">
       <c r="B878" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C878">
@@ -11901,7 +11901,7 @@
     <row r="880">
       <c r="B880" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C880">
@@ -12070,7 +12070,7 @@
     <row r="893">
       <c r="B893" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C893">
@@ -12096,7 +12096,7 @@
     <row r="895">
       <c r="B895" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C895">
@@ -12213,7 +12213,7 @@
     <row r="904">
       <c r="B904" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C904">
@@ -12239,7 +12239,7 @@
     <row r="906">
       <c r="B906" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C906">
@@ -12304,7 +12304,7 @@
     <row r="911">
       <c r="B911" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C911">
@@ -12395,7 +12395,7 @@
     <row r="918">
       <c r="B918" t="inlineStr">
         <is>
-          <t>Totoltepec de Guerrero</t>
+          <t>Totoltepec De Guerrero</t>
         </is>
       </c>
       <c r="C918">
@@ -12543,7 +12543,7 @@
       </c>
       <c r="B929" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C929">
@@ -12556,7 +12556,7 @@
     <row r="930">
       <c r="B930" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C930">
@@ -12608,7 +12608,7 @@
     <row r="934">
       <c r="B934" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C934">
@@ -12647,7 +12647,7 @@
     <row r="937">
       <c r="B937" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C937">
@@ -12686,7 +12686,7 @@
     <row r="940">
       <c r="B940" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C940">
@@ -12774,7 +12774,7 @@
       </c>
       <c r="B946" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C946">
@@ -12878,7 +12878,7 @@
     <row r="954">
       <c r="B954" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C954">
@@ -12917,7 +12917,7 @@
     <row r="957">
       <c r="B957" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C957">
@@ -12943,7 +12943,7 @@
     <row r="959">
       <c r="B959" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C959">
@@ -12995,7 +12995,7 @@
     <row r="963">
       <c r="B963" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C963">
@@ -13008,7 +13008,7 @@
     <row r="964">
       <c r="B964" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C964">
@@ -13021,7 +13021,7 @@
     <row r="965">
       <c r="B965" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C965">
@@ -13876,7 +13876,7 @@
     <row r="1030">
       <c r="B1030" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1030">
@@ -14019,7 +14019,7 @@
     <row r="1041">
       <c r="B1041" t="inlineStr">
         <is>
-          <t>San Felipe de Jesús</t>
+          <t>San Felipe De Jesús</t>
         </is>
       </c>
       <c r="C1041">
@@ -14058,7 +14058,7 @@
     <row r="1044">
       <c r="B1044" t="inlineStr">
         <is>
-          <t>San Pedro de la Cueva</t>
+          <t>San Pedro De La Cueva</t>
         </is>
       </c>
       <c r="C1044">
@@ -14310,7 +14310,7 @@
     <row r="1063">
       <c r="B1063" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1063">
@@ -14510,7 +14510,7 @@
     <row r="1078">
       <c r="B1078" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1078">
@@ -14606,7 +14606,7 @@
     <row r="1085">
       <c r="B1085" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1085">
@@ -14645,7 +14645,7 @@
     <row r="1088">
       <c r="B1088" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1088">
@@ -14710,7 +14710,7 @@
     <row r="1093">
       <c r="B1093" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1093">
@@ -14832,7 +14832,7 @@
     <row r="1102">
       <c r="B1102" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1102">
@@ -14871,7 +14871,7 @@
     <row r="1105">
       <c r="B1105" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1105">
@@ -14949,7 +14949,7 @@
     <row r="1111">
       <c r="B1111" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1111">
@@ -15001,7 +15001,7 @@
     <row r="1115">
       <c r="B1115" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1115">
@@ -15027,7 +15027,7 @@
     <row r="1117">
       <c r="B1117" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1117">
@@ -15118,7 +15118,7 @@
     <row r="1124">
       <c r="B1124" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1124">
@@ -15287,7 +15287,7 @@
     <row r="1137">
       <c r="B1137" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1137">
@@ -15313,7 +15313,7 @@
     <row r="1139">
       <c r="B1139" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1139">
@@ -15326,7 +15326,7 @@
     <row r="1140">
       <c r="B1140" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1140">
@@ -15430,7 +15430,7 @@
     <row r="1148">
       <c r="B1148" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1148">
@@ -15456,7 +15456,7 @@
     <row r="1150">
       <c r="B1150" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1150">
@@ -15469,7 +15469,7 @@
     <row r="1151">
       <c r="B1151" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1151">
@@ -15586,7 +15586,7 @@
     <row r="1160">
       <c r="B1160" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1160">
@@ -15625,7 +15625,7 @@
     <row r="1163">
       <c r="B1163" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1163">
@@ -15716,7 +15716,7 @@
     <row r="1170">
       <c r="B1170" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1170">
@@ -15742,7 +15742,7 @@
     <row r="1172">
       <c r="B1172" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1172">
@@ -15872,7 +15872,7 @@
     <row r="1182">
       <c r="B1182" t="inlineStr">
         <is>
-          <t>Tlacotepec de Mejía</t>
+          <t>Tlacotepec De Mejía</t>
         </is>
       </c>
       <c r="C1182">
@@ -15937,7 +15937,7 @@
     <row r="1187">
       <c r="B1187" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1187">
@@ -16181,7 +16181,7 @@
     <row r="1205">
       <c r="B1205" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1205">
@@ -16207,7 +16207,7 @@
     <row r="1207">
       <c r="B1207" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1207">
@@ -16233,7 +16233,7 @@
     <row r="1209">
       <c r="B1209" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C1209">
@@ -16350,7 +16350,7 @@
     <row r="1218">
       <c r="B1218" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1218">
@@ -16467,7 +16467,7 @@
     <row r="1227">
       <c r="B1227" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1227">
@@ -16480,7 +16480,7 @@
     <row r="1228">
       <c r="B1228" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1228">
@@ -16597,7 +16597,7 @@
     <row r="1237">
       <c r="B1237" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1237">
@@ -16610,7 +16610,7 @@
     <row r="1238">
       <c r="B1238" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1238">
@@ -16636,7 +16636,7 @@
     <row r="1240">
       <c r="B1240" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1240">
@@ -16722,41 +16722,6 @@
       </c>
       <c r="D1246">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1248">
-      <c r="A1248" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 826,856</t>
-        </is>
-      </c>
-    </row>
-    <row r="1249">
-      <c r="A1249" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1250">
-      <c r="A1250" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1251">
-      <c r="A1251" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1252">
-      <c r="A1252" t="inlineStr">
-        <is>
-          <t>Junio de 2018</t>
-        </is>
       </c>
     </row>
   </sheetData>
